--- a/static/template_xlsx/rosterTemplate.xlsx
+++ b/static/template_xlsx/rosterTemplate.xlsx
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>工序</t>
   </si>
   <si>
     <t>姓名</t>
+  </si>
+  <si>
+    <t>出生日期</t>
   </si>
 </sst>
 </file>
@@ -965,24 +968,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
